--- a/datasets/tree_DBH_hollows/input/Plot 04.xlsx
+++ b/datasets/tree_DBH_hollows/input/Plot 04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickjolly/Desktop/tfn/DataScienceProject/datasets/tree_DBH_hollows/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFE2962-90B5-3545-90A6-44DA3ADE786F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720B55B0-9CE0-9840-BAD9-01385FAEE3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11100" yWindow="500" windowWidth="17700" windowHeight="16220" xr2:uid="{5BC33C98-5856-C14D-91A9-A2FCB2A78973}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
   <si>
     <t>Tree Number</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Note: alternative measurement shared with tree number mapping</t>
   </si>
 </sst>
 </file>
@@ -453,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{267C4118-B865-3A40-B8EE-162357D24A39}">
   <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="89" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>573</v>
       </c>
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>574</v>
       </c>
@@ -801,7 +804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>575</v>
       </c>
@@ -824,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>580</v>
       </c>
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>581</v>
       </c>
@@ -855,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -870,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>301</v>
       </c>
@@ -892,8 +895,11 @@
       <c r="I22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>302</v>
       </c>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -915,8 +921,11 @@
       <c r="I23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>303</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="I24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>304</v>
       </c>
@@ -962,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>305</v>
       </c>
@@ -985,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>306</v>
       </c>
@@ -1008,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>307</v>
       </c>
@@ -1030,8 +1042,11 @@
       <c r="I28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>308</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>320</v>
       </c>
@@ -1077,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>309</v>
       </c>
@@ -1099,8 +1114,11 @@
       <c r="I31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>313</v>
       </c>
@@ -1122,8 +1140,11 @@
       <c r="I32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>311</v>
       </c>
@@ -1145,8 +1166,11 @@
       <c r="I33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>314</v>
       </c>
@@ -1169,7 +1193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>315</v>
       </c>
@@ -1177,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>34.299999999999997</v>
+        <v>34.4</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -1191,8 +1215,11 @@
       <c r="I35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>310</v>
       </c>
@@ -1214,8 +1241,11 @@
       <c r="I36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>316</v>
       </c>
@@ -1238,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>317</v>
       </c>
@@ -1261,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>318</v>
       </c>
@@ -1284,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>319</v>
       </c>
@@ -1307,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>312</v>
       </c>
@@ -1329,8 +1359,11 @@
       <c r="I41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>301</v>
       </c>
@@ -1362,7 +1395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>302</v>
       </c>
@@ -1391,7 +1424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>303</v>
       </c>
@@ -1420,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>304</v>
       </c>
@@ -1449,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>305</v>
       </c>
@@ -1478,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>306</v>
       </c>
@@ -1507,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>307</v>
       </c>
